--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H2">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>317.7849543212499</v>
+        <v>420.63604535553</v>
       </c>
       <c r="R2">
-        <v>317.7849543212499</v>
+        <v>3785.72440819977</v>
       </c>
       <c r="S2">
-        <v>0.0246479498851596</v>
+        <v>0.02143166759634534</v>
       </c>
       <c r="T2">
-        <v>0.0246479498851596</v>
+        <v>0.02143166759634535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H3">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>1599.784431144042</v>
+        <v>1712.16301955795</v>
       </c>
       <c r="R3">
-        <v>1599.784431144042</v>
+        <v>15409.46717602155</v>
       </c>
       <c r="S3">
-        <v>0.1240820433746387</v>
+        <v>0.08723576857258149</v>
       </c>
       <c r="T3">
-        <v>0.1240820433746387</v>
+        <v>0.0872357685725815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H4">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>1632.614037351801</v>
+        <v>1992.7350408707</v>
       </c>
       <c r="R4">
-        <v>1632.614037351801</v>
+        <v>17934.6153678363</v>
       </c>
       <c r="S4">
-        <v>0.1266283643302254</v>
+        <v>0.1015310872073104</v>
       </c>
       <c r="T4">
-        <v>0.1266283643302254</v>
+        <v>0.1015310872073104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H5">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I5">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J5">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>481.8702441421647</v>
+        <v>562.2202142839733</v>
       </c>
       <c r="R5">
-        <v>481.8702441421647</v>
+        <v>5059.98192855576</v>
       </c>
       <c r="S5">
-        <v>0.0373746883458777</v>
+        <v>0.02864546888342829</v>
       </c>
       <c r="T5">
-        <v>0.0373746883458777</v>
+        <v>0.02864546888342829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H6">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>363.6323478574756</v>
+        <v>455.252142926524</v>
       </c>
       <c r="R6">
-        <v>363.6323478574756</v>
+        <v>4097.269286338716</v>
       </c>
       <c r="S6">
-        <v>0.02820395290820931</v>
+        <v>0.02319537925352667</v>
       </c>
       <c r="T6">
-        <v>0.02820395290820931</v>
+        <v>0.02319537925352667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H7">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>1830.588140981236</v>
+        <v>1853.064881861193</v>
       </c>
       <c r="R7">
-        <v>1830.588140981236</v>
+        <v>16677.58393675074</v>
       </c>
       <c r="S7">
-        <v>0.1419835777173414</v>
+        <v>0.09441480591360817</v>
       </c>
       <c r="T7">
-        <v>0.1419835777173414</v>
+        <v>0.09441480591360818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H8">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J8">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>1868.154132140451</v>
+        <v>2156.726480428893</v>
       </c>
       <c r="R8">
-        <v>1868.154132140451</v>
+        <v>19410.53832386004</v>
       </c>
       <c r="S8">
-        <v>0.1448972608696995</v>
+        <v>0.1098865528409955</v>
       </c>
       <c r="T8">
-        <v>0.1448972608696995</v>
+        <v>0.1098865528409956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H9">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J9">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>551.3905106499666</v>
+        <v>608.4879319675342</v>
       </c>
       <c r="R9">
-        <v>551.3905106499666</v>
+        <v>5476.391387707808</v>
       </c>
       <c r="S9">
-        <v>0.04276680028065176</v>
+        <v>0.03100283781741376</v>
       </c>
       <c r="T9">
-        <v>0.04276680028065176</v>
+        <v>0.03100283781741376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H10">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>95.44027197464739</v>
+        <v>143.423770502676</v>
       </c>
       <c r="R10">
-        <v>95.44027197464739</v>
+        <v>1290.813934524084</v>
       </c>
       <c r="S10">
-        <v>0.007402512323723969</v>
+        <v>0.007307530129116314</v>
       </c>
       <c r="T10">
-        <v>0.007402512323723969</v>
+        <v>0.007307530129116316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H11">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I11">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J11">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>480.4628385736767</v>
+        <v>583.79418191014</v>
       </c>
       <c r="R11">
-        <v>480.4628385736767</v>
+        <v>5254.147637191259</v>
       </c>
       <c r="S11">
-        <v>0.03726552753933707</v>
+        <v>0.0297446759247733</v>
       </c>
       <c r="T11">
-        <v>0.03726552753933707</v>
+        <v>0.0297446759247733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H12">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I12">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J12">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>490.3225455946757</v>
+        <v>679.46048925244</v>
       </c>
       <c r="R12">
-        <v>490.3225455946757</v>
+        <v>6115.14440327196</v>
       </c>
       <c r="S12">
-        <v>0.03803026344401514</v>
+        <v>0.03461893366318713</v>
       </c>
       <c r="T12">
-        <v>0.03803026344401514</v>
+        <v>0.03461893366318714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H13">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I13">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J13">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>144.719964026134</v>
+        <v>191.6995556509547</v>
       </c>
       <c r="R13">
-        <v>144.719964026134</v>
+        <v>1725.296000858592</v>
       </c>
       <c r="S13">
-        <v>0.01122473034734145</v>
+        <v>0.00976721134682081</v>
       </c>
       <c r="T13">
-        <v>0.01122473034734145</v>
+        <v>0.009767211346820811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H14">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I14">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J14">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>239.2964858380485</v>
+        <v>741.8210777884669</v>
       </c>
       <c r="R14">
-        <v>239.2964858380485</v>
+        <v>6676.389700096202</v>
       </c>
       <c r="S14">
-        <v>0.01856024871671094</v>
+        <v>0.03779624435582397</v>
       </c>
       <c r="T14">
-        <v>0.01856024871671094</v>
+        <v>0.03779624435582397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H15">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I15">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J15">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>1204.659903703917</v>
+        <v>3019.519203221171</v>
       </c>
       <c r="R15">
-        <v>1204.659903703917</v>
+        <v>27175.67282899054</v>
       </c>
       <c r="S15">
-        <v>0.0934355026296783</v>
+        <v>0.1538463775959112</v>
       </c>
       <c r="T15">
-        <v>0.0934355026296783</v>
+        <v>0.1538463775959112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H16">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I16">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J16">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>1229.381053305676</v>
+        <v>3514.327581023396</v>
       </c>
       <c r="R16">
-        <v>1229.381053305676</v>
+        <v>31628.94822921057</v>
       </c>
       <c r="S16">
-        <v>0.0953529176872575</v>
+        <v>0.1790571715685983</v>
       </c>
       <c r="T16">
-        <v>0.0953529176872575</v>
+        <v>0.1790571715685983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H17">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I17">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J17">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>362.854988838066</v>
+        <v>991.5146595724738</v>
       </c>
       <c r="R17">
-        <v>362.854988838066</v>
+        <v>8923.631936152264</v>
       </c>
       <c r="S17">
-        <v>0.02814365960013214</v>
+        <v>0.05051828733055914</v>
       </c>
       <c r="T17">
-        <v>0.02814365960013214</v>
+        <v>0.05051828733055914</v>
       </c>
     </row>
   </sheetData>
